--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Accidents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="junction road 1 lane" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="straight road 2 lanes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="junction road 1 lane" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="roundabout road 1 lane" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,147 +503,3024 @@
           <t>Avg. Speed (Road 0, Direction 1)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 1, Direction 0)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 1, Direction 1)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 2, Direction 0)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 2, Direction 1)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-09-04 20:34:45</t>
+          <t>2024-09-05 02:23:55</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.04422112196007</v>
+        <v>79.06546336869363</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>84.72358694492704</v>
+      </c>
+      <c r="E2" t="n">
+        <v>73.40733979246022</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:23:57</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80.05320124869411</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>83.77754644258471</v>
+      </c>
+      <c r="E3" t="n">
+        <v>74.46668345785818</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Stamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average Speed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 0, Direction 0)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 0, Direction 1)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 1, Direction 0)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 1, Direction 1)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 2, Direction 0)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 2, Direction 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>34.99635918027328</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>30.9761040771422</v>
+        <v>4.393063460586223</v>
       </c>
       <c r="E2" t="n">
-        <v>44.80910302082581</v>
+        <v>45.73366335311405</v>
       </c>
       <c r="F2" t="n">
-        <v>38.91255566807691</v>
+        <v>44.44592450569272</v>
       </c>
       <c r="G2" t="n">
-        <v>48.22873472745606</v>
+        <v>37.97181366800277</v>
       </c>
       <c r="H2" t="n">
-        <v>47.29460811629941</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>42.43733091397063</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-09-04 20:34:47</t>
+          <t>2024-09-05 02:24:13</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.95742520586769</v>
+        <v>41.44188356935395</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>39.68624490228954</v>
+        <v>14.78640872099749</v>
       </c>
       <c r="E3" t="n">
-        <v>44.38116572036171</v>
+        <v>49.40426760111525</v>
       </c>
       <c r="F3" t="n">
-        <v>36.5083669672939</v>
+        <v>43.2365402167712</v>
       </c>
       <c r="G3" t="n">
-        <v>45.01661445080617</v>
+        <v>37.97181366800277</v>
       </c>
       <c r="H3" t="n">
-        <v>39.67779139151808</v>
-      </c>
-      <c r="I3" t="n">
-        <v>38.72013009642776</v>
+        <v>46.74761526502925</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-09-04 20:34:51</t>
+          <t>2024-09-05 02:24:15</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.64511212292213</v>
+        <v>43.61583894059908</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.2810027842627</v>
+      </c>
+      <c r="E4" t="n">
+        <v>49.45049124746147</v>
+      </c>
+      <c r="F4" t="n">
+        <v>42.4339248564229</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41.55691913639955</v>
+      </c>
+      <c r="H4" t="n">
+        <v>46.77651743249888</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:17</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>42.98124259265767</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37.3154766943365</v>
+      </c>
+      <c r="E5" t="n">
+        <v>46.29929160309521</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42.84413052079171</v>
+      </c>
+      <c r="G5" t="n">
+        <v>41.8487160785565</v>
+      </c>
+      <c r="H5" t="n">
+        <v>44.7100094337347</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:30</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>42.96707629382596</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>37.38401368504142</v>
+      </c>
+      <c r="E6" t="n">
+        <v>46.298551335539</v>
+      </c>
+      <c r="F6" t="n">
+        <v>42.82160037733399</v>
+      </c>
+      <c r="G6" t="n">
+        <v>41.7735170462734</v>
+      </c>
+      <c r="H6" t="n">
+        <v>44.69667815534711</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:32</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>37.20956760765973</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.85925007301338</v>
+      </c>
+      <c r="E7" t="n">
+        <v>46.21717198735715</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22.51473716081829</v>
+      </c>
+      <c r="G7" t="n">
+        <v>41.36161274748262</v>
+      </c>
+      <c r="H7" t="n">
+        <v>43.12369145413532</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:34</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>37.7953968148076</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.69322417816824</v>
+      </c>
+      <c r="E8" t="n">
+        <v>48.42215046103007</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21.6199447650946</v>
+      </c>
+      <c r="G8" t="n">
+        <v>42.55662647694722</v>
+      </c>
+      <c r="H8" t="n">
+        <v>38.36563202120976</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:36</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>28.60792883703499</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.64313216695199</v>
+      </c>
+      <c r="E9" t="n">
+        <v>42.77089653460615</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17.19285068408341</v>
+      </c>
+      <c r="G9" t="n">
+        <v>25.44127056198108</v>
+      </c>
+      <c r="H9" t="n">
+        <v>35.68218761793459</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:38</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>28.80168728219618</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21.1678950835234</v>
+      </c>
+      <c r="E10" t="n">
+        <v>42.36789678575277</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.77587241297135</v>
+      </c>
+      <c r="G10" t="n">
+        <v>31.44368824623512</v>
+      </c>
+      <c r="H10" t="n">
+        <v>28.90439312988816</v>
+      </c>
+      <c r="I10" t="n">
+        <v>39.34623886100228</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:40</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>28.18650248188802</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.87844819975973</v>
+      </c>
+      <c r="E11" t="n">
+        <v>42.58542544579944</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.09227872234151</v>
+      </c>
+      <c r="G11" t="n">
+        <v>27.78463784152743</v>
+      </c>
+      <c r="H11" t="n">
+        <v>37.35402535494467</v>
+      </c>
+      <c r="I11" t="n">
+        <v>39.34623886100228</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:42</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>25.6986094226645</v>
+      </c>
+      <c r="C12" t="n">
+        <v>28</v>
+      </c>
+      <c r="D12" t="n">
+        <v>31.1494757582744</v>
+      </c>
+      <c r="E12" t="n">
+        <v>31.35753163375464</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.998984658213491</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20.68768525666971</v>
+      </c>
+      <c r="H12" t="n">
+        <v>34.5742135851406</v>
+      </c>
+      <c r="I12" t="n">
+        <v>39.34623886100228</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:44</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>23.40468921617167</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15.76580612168093</v>
+      </c>
+      <c r="E13" t="n">
+        <v>38.63830673584613</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12.1267526996827</v>
+      </c>
+      <c r="G13" t="n">
+        <v>19.86804349644278</v>
+      </c>
+      <c r="H13" t="n">
+        <v>28.46278776385002</v>
+      </c>
+      <c r="I13" t="n">
+        <v>39.34623886100228</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:46</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>22.48291147327005</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33</v>
+      </c>
+      <c r="D14" t="n">
+        <v>24.38930660710081</v>
+      </c>
+      <c r="E14" t="n">
+        <v>43.16416990712663</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.644079889024948</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14.11806316591993</v>
+      </c>
+      <c r="H14" t="n">
+        <v>26.038388007452</v>
+      </c>
+      <c r="I14" t="n">
+        <v>46.50566008731671</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:48</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>24.17432357638051</v>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>38.48290080386287</v>
+      </c>
+      <c r="E15" t="n">
+        <v>42.57835186219087</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12.89257698497613</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.55582713081293</v>
+      </c>
+      <c r="H15" t="n">
+        <v>23.94454937562243</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45.13710934690202</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:50</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>23.22348899515262</v>
+      </c>
+      <c r="C16" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" t="n">
+        <v>34.81626975652237</v>
+      </c>
+      <c r="E16" t="n">
+        <v>40.25413821822411</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.990866455185859</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15.725930287543</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21.78124412684966</v>
+      </c>
+      <c r="I16" t="n">
+        <v>48.16089989397879</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:52</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20.73546212418324</v>
+      </c>
+      <c r="C17" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" t="n">
+        <v>45.61117017623352</v>
+      </c>
+      <c r="E17" t="n">
+        <v>34.68814645365869</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11.12344664356394</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15.10942226922253</v>
+      </c>
+      <c r="H17" t="n">
+        <v>14.25525926770136</v>
+      </c>
+      <c r="I17" t="n">
+        <v>48.23120801265688</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:54</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>19.64365372019536</v>
+      </c>
+      <c r="C18" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" t="n">
+        <v>40.61318099460989</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30.55707380837534</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11.12344664356394</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8.322327580985162</v>
+      </c>
+      <c r="H18" t="n">
+        <v>25.81374065960761</v>
+      </c>
+      <c r="I18" t="n">
+        <v>43.11030707356868</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:56</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>19.21208551848476</v>
+      </c>
+      <c r="C19" t="n">
+        <v>39</v>
+      </c>
+      <c r="D19" t="n">
+        <v>15.99025264110912</v>
+      </c>
+      <c r="E19" t="n">
+        <v>34.72245781342466</v>
+      </c>
+      <c r="F19" t="n">
+        <v>13.58223394362244</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8.461458110981063</v>
+      </c>
+      <c r="H19" t="n">
+        <v>25.36933096584777</v>
+      </c>
+      <c r="I19" t="n">
+        <v>47.9176309233284</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:24:58</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>16.43817559186398</v>
+      </c>
+      <c r="C20" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>44.80662129313079</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8.864589284455143</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.15358884382501</v>
+      </c>
+      <c r="H20" t="n">
+        <v>22.15761155976887</v>
+      </c>
+      <c r="I20" t="n">
+        <v>52.72495477308811</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:00</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>16.16196914423264</v>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>33.27834661020762</v>
+      </c>
+      <c r="E21" t="n">
+        <v>40.06876414522249</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8.864589284455143</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.15358884382501</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9.614083666025056</v>
+      </c>
+      <c r="I21" t="n">
+        <v>52.72495477308811</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:02</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15.61484405838802</v>
+      </c>
+      <c r="C22" t="n">
+        <v>38</v>
+      </c>
+      <c r="D22" t="n">
+        <v>34.79943876302555</v>
+      </c>
+      <c r="E22" t="n">
+        <v>39.64935464043212</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8.864589284455143</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.180749131053597</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.340651929361862</v>
+      </c>
+      <c r="I22" t="n">
+        <v>52.72495477308811</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:04</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>14.97313158255177</v>
+      </c>
+      <c r="C23" t="n">
+        <v>37</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25.57828579521856</v>
+      </c>
+      <c r="E23" t="n">
+        <v>40.25387097581009</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.463914955518609</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.180749131053597</v>
+      </c>
+      <c r="H23" t="n">
+        <v>11.99592027861819</v>
+      </c>
+      <c r="I23" t="n">
+        <v>38.66322851581593</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:06</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15.59372063617882</v>
+      </c>
+      <c r="C24" t="n">
+        <v>39</v>
+      </c>
+      <c r="D24" t="n">
+        <v>42.9528459744285</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.19051600616536</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.54444953180807</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.745235200333946</v>
+      </c>
+      <c r="H24" t="n">
+        <v>16.81848406064554</v>
+      </c>
+      <c r="I24" t="n">
+        <v>40.09852324176882</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:08</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16.31412751025034</v>
+      </c>
+      <c r="C25" t="n">
+        <v>38</v>
+      </c>
+      <c r="D25" t="n">
+        <v>32.17365246280233</v>
+      </c>
+      <c r="E25" t="n">
+        <v>19.21600688497652</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.54444953180807</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.731549850936873</v>
+      </c>
+      <c r="H25" t="n">
+        <v>24.71125914818593</v>
+      </c>
+      <c r="I25" t="n">
+        <v>44.05936256829989</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:10</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>18.85339127453509</v>
+      </c>
+      <c r="C26" t="n">
+        <v>40</v>
+      </c>
+      <c r="D26" t="n">
+        <v>40.0693751115073</v>
+      </c>
+      <c r="E26" t="n">
+        <v>35.74122399274201</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5.148590767765469</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7.731549850936873</v>
+      </c>
+      <c r="H26" t="n">
+        <v>18.6581758906063</v>
+      </c>
+      <c r="I26" t="n">
+        <v>44.65904213669148</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:12</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>20.36419458599098</v>
+      </c>
+      <c r="C27" t="n">
+        <v>41</v>
+      </c>
+      <c r="D27" t="n">
+        <v>36.05901541347716</v>
+      </c>
+      <c r="E27" t="n">
+        <v>41.42518126914416</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.148590767765469</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10.02273022774575</v>
+      </c>
+      <c r="H27" t="n">
+        <v>20.35532049799495</v>
+      </c>
+      <c r="I27" t="n">
+        <v>42.72610165254637</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:14</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>20.94331763936164</v>
+      </c>
+      <c r="C28" t="n">
+        <v>41</v>
+      </c>
+      <c r="D28" t="n">
+        <v>29.92936381648639</v>
+      </c>
+      <c r="E28" t="n">
+        <v>36.13201055819341</v>
+      </c>
+      <c r="F28" t="n">
+        <v>19.99853692181868</v>
+      </c>
+      <c r="G28" t="n">
+        <v>12.07674379424227</v>
+      </c>
+      <c r="H28" t="n">
+        <v>15.315051543697</v>
+      </c>
+      <c r="I28" t="n">
+        <v>41.82821908428418</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:16</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>21.16655542215433</v>
+      </c>
+      <c r="C29" t="n">
+        <v>42</v>
+      </c>
+      <c r="D29" t="n">
+        <v>21.84513938696945</v>
+      </c>
+      <c r="E29" t="n">
+        <v>29.78827911033055</v>
+      </c>
+      <c r="F29" t="n">
+        <v>26.40712400182217</v>
+      </c>
+      <c r="G29" t="n">
+        <v>11.20709574564184</v>
+      </c>
+      <c r="H29" t="n">
+        <v>17.40014213276685</v>
+      </c>
+      <c r="I29" t="n">
+        <v>49.28977430790994</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:18</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>18.70849405885433</v>
+      </c>
+      <c r="C30" t="n">
+        <v>40</v>
+      </c>
+      <c r="D30" t="n">
+        <v>37.60142833857493</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28.22195713633542</v>
+      </c>
+      <c r="F30" t="n">
+        <v>27.23386686315565</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6.781129387983738</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7.646793047412365</v>
+      </c>
+      <c r="I30" t="n">
+        <v>48.47532464798751</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:20</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>16.6307770692412</v>
+      </c>
+      <c r="C31" t="n">
+        <v>41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>30.97997035196254</v>
+      </c>
+      <c r="E31" t="n">
+        <v>24.84998713611793</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15.47412339024903</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9.389719365206398</v>
+      </c>
+      <c r="H31" t="n">
+        <v>15.36524321895893</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:22</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16.312836466777</v>
+      </c>
+      <c r="C32" t="n">
+        <v>41</v>
+      </c>
+      <c r="D32" t="n">
+        <v>27.65798199322877</v>
+      </c>
+      <c r="E32" t="n">
+        <v>32.67678572013581</v>
+      </c>
+      <c r="F32" t="n">
+        <v>16.47856576721475</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.006937511150729</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7.856447215596972</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:24</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>15.46118743110019</v>
+      </c>
+      <c r="C33" t="n">
+        <v>42</v>
+      </c>
+      <c r="D33" t="n">
+        <v>33.80393767868129</v>
+      </c>
+      <c r="E33" t="n">
+        <v>28.49094234966287</v>
+      </c>
+      <c r="F33" t="n">
+        <v>16.17842837605569</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6.397777875765947</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8.255768454986045</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:26</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>11.34111150645201</v>
+      </c>
+      <c r="C34" t="n">
+        <v>42</v>
+      </c>
+      <c r="D34" t="n">
+        <v>27.11947424406067</v>
+      </c>
+      <c r="E34" t="n">
+        <v>19.50604786727735</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10.62722669860067</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7.209734542862218</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.593240575775679</v>
+      </c>
+      <c r="I34" t="n">
+        <v>40.42192520715307</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:28</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>13.06713618907865</v>
+      </c>
+      <c r="C35" t="n">
+        <v>43</v>
+      </c>
+      <c r="D35" t="n">
+        <v>44.86849291723198</v>
+      </c>
+      <c r="E35" t="n">
+        <v>17.57148450913655</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8.899170492477019</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10.85214327011604</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>40.42192520715307</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:30</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>16.8555830140041</v>
+      </c>
+      <c r="C36" t="n">
+        <v>43</v>
+      </c>
+      <c r="D36" t="n">
+        <v>41.68367472230834</v>
+      </c>
+      <c r="E36" t="n">
+        <v>11.89188477802683</v>
+      </c>
+      <c r="F36" t="n">
+        <v>22.6668393843618</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10.79281286658052</v>
+      </c>
+      <c r="H36" t="n">
+        <v>11.16498978077147</v>
+      </c>
+      <c r="I36" t="n">
+        <v>40.42192520715307</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:32</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>19.08290266760531</v>
+      </c>
+      <c r="C37" t="n">
+        <v>45</v>
+      </c>
+      <c r="D37" t="n">
+        <v>40.95937163950197</v>
+      </c>
+      <c r="E37" t="n">
+        <v>21.07560666644414</v>
+      </c>
+      <c r="F37" t="n">
+        <v>17.54207254381067</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.997343056358088</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12.97713040945389</v>
+      </c>
+      <c r="I37" t="n">
+        <v>39.09620127586024</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:34</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>16.05933205860041</v>
+      </c>
+      <c r="C38" t="n">
+        <v>44</v>
+      </c>
+      <c r="D38" t="n">
+        <v>35.28506368352045</v>
+      </c>
+      <c r="E38" t="n">
+        <v>19.10668689945143</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3.338710203212712</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.729235757129286</v>
+      </c>
+      <c r="H38" t="n">
+        <v>19.02626916207991</v>
+      </c>
+      <c r="I38" t="n">
+        <v>39.09620127586024</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:36</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>17.92919179166113</v>
+      </c>
+      <c r="C39" t="n">
+        <v>42</v>
+      </c>
+      <c r="D39" t="n">
+        <v>44.84062674384695</v>
+      </c>
+      <c r="E39" t="n">
+        <v>27.79176067796275</v>
+      </c>
+      <c r="F39" t="n">
+        <v>14.09832370181872</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>11.64077214760912</v>
+      </c>
+      <c r="I39" t="n">
+        <v>39.09620127586024</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:38</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>16.9953886451954</v>
+      </c>
+      <c r="C40" t="n">
+        <v>45</v>
+      </c>
+      <c r="D40" t="n">
+        <v>38.03853991012597</v>
+      </c>
+      <c r="E40" t="n">
+        <v>21.81025716463187</v>
+      </c>
+      <c r="F40" t="n">
+        <v>23.09389603057717</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.835093469508422</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4.520271234542243</v>
+      </c>
+      <c r="I40" t="n">
+        <v>39.09620127586024</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:40</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>13.75556984247157</v>
+      </c>
+      <c r="C41" t="n">
+        <v>44</v>
+      </c>
+      <c r="D41" t="n">
+        <v>30.34965010228375</v>
+      </c>
+      <c r="E41" t="n">
+        <v>19.87798119578382</v>
+      </c>
+      <c r="F41" t="n">
+        <v>19.17010866675417</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.835093469508422</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>42.38530086535872</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:42</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>18.02685481676514</v>
+      </c>
+      <c r="C42" t="n">
+        <v>46</v>
+      </c>
+      <c r="D42" t="n">
+        <v>40.87086501003996</v>
+      </c>
+      <c r="E42" t="n">
+        <v>16.43514081019899</v>
+      </c>
+      <c r="F42" t="n">
+        <v>27.53130819797366</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4.835093469508422</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6.853026720331519</v>
+      </c>
+      <c r="I42" t="n">
+        <v>41.88043678703651</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:44</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>19.9800573050943</v>
+      </c>
+      <c r="C43" t="n">
+        <v>48</v>
+      </c>
+      <c r="D43" t="n">
+        <v>34.50246745517335</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10.50735692584111</v>
+      </c>
+      <c r="F43" t="n">
+        <v>34.10427539110421</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.835093469508422</v>
+      </c>
+      <c r="H43" t="n">
+        <v>14.66251159978321</v>
+      </c>
+      <c r="I43" t="n">
+        <v>41.99875857165646</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:46</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>18.13996540583567</v>
+      </c>
+      <c r="C44" t="n">
+        <v>46</v>
+      </c>
+      <c r="D44" t="n">
+        <v>40.87733697386638</v>
+      </c>
+      <c r="E44" t="n">
+        <v>17.23357746025167</v>
+      </c>
+      <c r="F44" t="n">
+        <v>25.39811823224661</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>12.34558483831665</v>
+      </c>
+      <c r="I44" t="n">
+        <v>44.2217296314773</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:48</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>17.31725864639462</v>
+      </c>
+      <c r="C45" t="n">
+        <v>48</v>
+      </c>
+      <c r="D45" t="n">
+        <v>29.66366958014464</v>
+      </c>
+      <c r="E45" t="n">
+        <v>14.32241014284866</v>
+      </c>
+      <c r="F45" t="n">
+        <v>23.67024127242603</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>17.63959726115558</v>
+      </c>
+      <c r="I45" t="n">
+        <v>44.29746447332083</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:50</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>13.40148671642044</v>
+      </c>
+      <c r="C46" t="n">
+        <v>46</v>
+      </c>
+      <c r="D46" t="n">
+        <v>29.71811591692117</v>
+      </c>
+      <c r="E46" t="n">
+        <v>13.16366319671311</v>
+      </c>
+      <c r="F46" t="n">
+        <v>17.69238596399149</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>12.06239397791885</v>
+      </c>
+      <c r="I46" t="n">
+        <v>42.08416750799505</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:52</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>14.33781877890627</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46</v>
+      </c>
+      <c r="D47" t="n">
+        <v>41.91989976547178</v>
+      </c>
+      <c r="E47" t="n">
+        <v>13.13650482936446</v>
+      </c>
+      <c r="F47" t="n">
+        <v>19.08719918367784</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.7717363633478087</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10.02709145548375</v>
+      </c>
+      <c r="I47" t="n">
+        <v>42.08416750799505</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:54</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>13.70995272558809</v>
+      </c>
+      <c r="C48" t="n">
+        <v>45</v>
+      </c>
+      <c r="D48" t="n">
+        <v>33.47799378503207</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6.858405292764509</v>
+      </c>
+      <c r="F48" t="n">
+        <v>18.61476000026381</v>
+      </c>
+      <c r="G48" t="n">
+        <v>9.468455240128627</v>
+      </c>
+      <c r="H48" t="n">
+        <v>12.93713368343659</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:56</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>14.62632602450118</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="n">
+        <v>38.56470061131652</v>
+      </c>
+      <c r="E49" t="n">
+        <v>8.156459262282283</v>
+      </c>
+      <c r="F49" t="n">
+        <v>12.87029844462731</v>
+      </c>
+      <c r="G49" t="n">
+        <v>21.87001289700887</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7.676030280067676</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:25:58</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>13.4341503068655</v>
+      </c>
+      <c r="C50" t="n">
+        <v>49</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11.23482352475217</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9.296409274316389</v>
+      </c>
+      <c r="F50" t="n">
+        <v>15.13569167877882</v>
+      </c>
+      <c r="G50" t="n">
+        <v>27.6549346777965</v>
+      </c>
+      <c r="H50" t="n">
+        <v>8.008569107650192</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:00</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>12.96782481416902</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="n">
+        <v>16.35999999999999</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.952873236060928</v>
+      </c>
+      <c r="F51" t="n">
+        <v>14.54140703251142</v>
+      </c>
+      <c r="G51" t="n">
+        <v>34.00496532531157</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.639086064068926</v>
+      </c>
+      <c r="I51" t="n">
+        <v>43.1925853442457</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:02</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>11.91067933895899</v>
+      </c>
+      <c r="C52" t="n">
+        <v>49</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.572701181311505</v>
+      </c>
+      <c r="F52" t="n">
+        <v>14.47666424187915</v>
+      </c>
+      <c r="G52" t="n">
+        <v>37.130079364792</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>44.37441415515567</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:04</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>13.21671980053572</v>
+      </c>
+      <c r="C53" t="n">
+        <v>49</v>
+      </c>
+      <c r="D53" t="n">
+        <v>23.79784314024765</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.47150463777751</v>
+      </c>
+      <c r="F53" t="n">
+        <v>12.78143179254643</v>
+      </c>
+      <c r="G53" t="n">
+        <v>36.31111239272098</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>41.10715293646337</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:06</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>13.28079121346105</v>
+      </c>
+      <c r="C54" t="n">
+        <v>48</v>
+      </c>
+      <c r="D54" t="n">
+        <v>41.66005885324135</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9.864661401681168</v>
+      </c>
+      <c r="G54" t="n">
+        <v>29.81840097345493</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.7446457742485246</v>
+      </c>
+      <c r="I54" t="n">
+        <v>41.1586070112916</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:08</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>17.52044813673113</v>
+      </c>
+      <c r="C55" t="n">
+        <v>48</v>
+      </c>
+      <c r="D55" t="n">
+        <v>37.42058249980293</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>13.12558999696427</v>
+      </c>
+      <c r="G55" t="n">
+        <v>39.28469346283216</v>
+      </c>
+      <c r="H55" t="n">
+        <v>9.93060904595105</v>
+      </c>
+      <c r="I55" t="n">
+        <v>41.16517330573924</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:10</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>18.34308331084997</v>
+      </c>
+      <c r="C56" t="n">
+        <v>46</v>
+      </c>
+      <c r="D56" t="n">
+        <v>29.045798106849</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.850222775719319</v>
+      </c>
+      <c r="F56" t="n">
+        <v>21.49372326395186</v>
+      </c>
+      <c r="G56" t="n">
+        <v>37.26862861437365</v>
+      </c>
+      <c r="H56" t="n">
+        <v>11.0765152293692</v>
+      </c>
+      <c r="I56" t="n">
+        <v>42.70990054138622</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:12</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>18.76888798339897</v>
+      </c>
+      <c r="C57" t="n">
+        <v>46</v>
+      </c>
+      <c r="D57" t="n">
+        <v>26.91070509091991</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9.308993698588704</v>
+      </c>
+      <c r="F57" t="n">
+        <v>11.87596082248933</v>
+      </c>
+      <c r="G57" t="n">
+        <v>30.6680356642418</v>
+      </c>
+      <c r="H57" t="n">
+        <v>16.88245821654417</v>
+      </c>
+      <c r="I57" t="n">
+        <v>43.09662843501707</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:14</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>20.01028381914984</v>
+      </c>
+      <c r="C58" t="n">
+        <v>48</v>
+      </c>
+      <c r="D58" t="n">
+        <v>37.27802527911425</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13.52343071361693</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9.918939564753064</v>
+      </c>
+      <c r="G58" t="n">
+        <v>20.30964637244328</v>
+      </c>
+      <c r="H58" t="n">
+        <v>21.28062525778789</v>
+      </c>
+      <c r="I58" t="n">
+        <v>44.58167266879934</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:16</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>23.08335256020719</v>
+      </c>
+      <c r="C59" t="n">
+        <v>47</v>
+      </c>
+      <c r="D59" t="n">
+        <v>37.68521875217895</v>
+      </c>
+      <c r="E59" t="n">
+        <v>18.80464391098743</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9.586251223238882</v>
+      </c>
+      <c r="G59" t="n">
+        <v>19.50338327231735</v>
+      </c>
+      <c r="H59" t="n">
+        <v>29.21327509252221</v>
+      </c>
+      <c r="I59" t="n">
+        <v>43.52122256906551</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:18</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>21.99276383013884</v>
+      </c>
+      <c r="C60" t="n">
+        <v>45</v>
+      </c>
+      <c r="D60" t="n">
+        <v>26.50133401181088</v>
+      </c>
+      <c r="E60" t="n">
+        <v>17.36126357415798</v>
+      </c>
+      <c r="F60" t="n">
+        <v>12.92138824148261</v>
+      </c>
+      <c r="G60" t="n">
+        <v>19.17861268721929</v>
+      </c>
+      <c r="H60" t="n">
+        <v>31.34414701791204</v>
+      </c>
+      <c r="I60" t="n">
+        <v>45.09258374802322</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:20</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>23.6572266918546</v>
+      </c>
+      <c r="C61" t="n">
+        <v>46</v>
+      </c>
+      <c r="D61" t="n">
+        <v>27.17142465925223</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13.39613362900298</v>
+      </c>
+      <c r="F61" t="n">
+        <v>12.840299382106</v>
+      </c>
+      <c r="G61" t="n">
+        <v>31.35109951514847</v>
+      </c>
+      <c r="H61" t="n">
+        <v>31.59960447739062</v>
+      </c>
+      <c r="I61" t="n">
+        <v>44.35008488648736</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:22</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>22.30709852373882</v>
+      </c>
+      <c r="C62" t="n">
+        <v>45</v>
+      </c>
+      <c r="D62" t="n">
+        <v>27.8881394248409</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10.2732467818565</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12.84098580523947</v>
+      </c>
+      <c r="G62" t="n">
+        <v>30.4909462417172</v>
+      </c>
+      <c r="H62" t="n">
+        <v>36.0841020983209</v>
+      </c>
+      <c r="I62" t="n">
+        <v>41.40262137386765</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:24</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>18.02665049184527</v>
+      </c>
+      <c r="C63" t="n">
+        <v>43</v>
+      </c>
+      <c r="D63" t="n">
+        <v>16.67280571452992</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.544335670821443</v>
+      </c>
+      <c r="F63" t="n">
+        <v>18.8491055017905</v>
+      </c>
+      <c r="G63" t="n">
+        <v>24.1689241599064</v>
+      </c>
+      <c r="H63" t="n">
+        <v>31.55981735583636</v>
+      </c>
+      <c r="I63" t="n">
+        <v>41.40262137386765</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:26</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>22.21634214279035</v>
+      </c>
+      <c r="C64" t="n">
+        <v>45</v>
+      </c>
+      <c r="D64" t="n">
+        <v>17.06166375832923</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7.958868931719829</v>
+      </c>
+      <c r="F64" t="n">
+        <v>25.68994419512059</v>
+      </c>
+      <c r="G64" t="n">
+        <v>33.04795876410318</v>
+      </c>
+      <c r="H64" t="n">
+        <v>35.56363708410493</v>
+      </c>
+      <c r="I64" t="n">
+        <v>41.40262137386765</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:28</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>16.18770124990268</v>
+      </c>
+      <c r="C65" t="n">
+        <v>43</v>
+      </c>
+      <c r="D65" t="n">
+        <v>29.10243474632874</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9.797701499118231</v>
+      </c>
+      <c r="F65" t="n">
+        <v>13.58701379563308</v>
+      </c>
+      <c r="G65" t="n">
+        <v>13.96467124775512</v>
+      </c>
+      <c r="H65" t="n">
+        <v>19.86410492321861</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:30</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>15.31590482551295</v>
+      </c>
+      <c r="C66" t="n">
+        <v>44</v>
+      </c>
+      <c r="D66" t="n">
+        <v>18.42385922785598</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5.588240660795297</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11.93449593003797</v>
+      </c>
+      <c r="G66" t="n">
+        <v>25.57369442411633</v>
+      </c>
+      <c r="H66" t="n">
+        <v>23.91935508146101</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:32</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>17.92593116366128</v>
+      </c>
+      <c r="C67" t="n">
+        <v>46</v>
+      </c>
+      <c r="D67" t="n">
+        <v>18.28638285634148</v>
+      </c>
+      <c r="E67" t="n">
+        <v>10.04106820247895</v>
+      </c>
+      <c r="F67" t="n">
+        <v>12.34367190770248</v>
+      </c>
+      <c r="G67" t="n">
+        <v>26.54747164875202</v>
+      </c>
+      <c r="H67" t="n">
+        <v>35.32382891088419</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:34</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>15.22059924894013</v>
+      </c>
+      <c r="C68" t="n">
+        <v>45</v>
+      </c>
+      <c r="D68" t="n">
+        <v>19.50171507364555</v>
+      </c>
+      <c r="E68" t="n">
+        <v>6.225799380319438</v>
+      </c>
+      <c r="F68" t="n">
+        <v>21.09167493514472</v>
+      </c>
+      <c r="G68" t="n">
+        <v>29.58058208610411</v>
+      </c>
+      <c r="H68" t="n">
+        <v>9.972521119560209</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:36</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>15.8658947819419</v>
+      </c>
+      <c r="C69" t="n">
+        <v>46</v>
+      </c>
+      <c r="D69" t="n">
+        <v>30.88025581320661</v>
+      </c>
+      <c r="E69" t="n">
+        <v>7.728939662208362</v>
+      </c>
+      <c r="F69" t="n">
+        <v>16.08021818560141</v>
+      </c>
+      <c r="G69" t="n">
+        <v>14.13384334750534</v>
+      </c>
+      <c r="H69" t="n">
+        <v>16.36563638622588</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:39</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>16.23688822780552</v>
+      </c>
+      <c r="C70" t="n">
+        <v>46</v>
+      </c>
+      <c r="D70" t="n">
+        <v>27.18285102628579</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6.250619479255424</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10.16549817619926</v>
+      </c>
+      <c r="G70" t="n">
+        <v>17.39888949955728</v>
+      </c>
+      <c r="H70" t="n">
+        <v>26.45328932830135</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:41</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>19.35050316820571</v>
+      </c>
+      <c r="C71" t="n">
+        <v>47</v>
+      </c>
+      <c r="D71" t="n">
+        <v>23.02739035483238</v>
+      </c>
+      <c r="E71" t="n">
+        <v>16.31905943233361</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9.578479461314876</v>
+      </c>
+      <c r="G71" t="n">
+        <v>21.14911985274819</v>
+      </c>
+      <c r="H71" t="n">
+        <v>31.88444144372881</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:43</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>16.65535323061195</v>
+      </c>
+      <c r="C72" t="n">
+        <v>48</v>
+      </c>
+      <c r="D72" t="n">
+        <v>23.08238752005909</v>
+      </c>
+      <c r="E72" t="n">
+        <v>12.08205158871266</v>
+      </c>
+      <c r="F72" t="n">
+        <v>17.48026943089469</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6.531988885997217</v>
+      </c>
+      <c r="H72" t="n">
+        <v>25.25501607949216</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:45</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>16.86273085821919</v>
+      </c>
+      <c r="C73" t="n">
+        <v>46</v>
+      </c>
+      <c r="D73" t="n">
+        <v>19.13602175489989</v>
+      </c>
+      <c r="E73" t="n">
+        <v>12.4710902494421</v>
+      </c>
+      <c r="F73" t="n">
+        <v>26.64748419225171</v>
+      </c>
+      <c r="G73" t="n">
+        <v>7.052162537610457</v>
+      </c>
+      <c r="H73" t="n">
+        <v>19.65444713896225</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:47</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>17.0196324726776</v>
+      </c>
+      <c r="C74" t="n">
+        <v>48</v>
+      </c>
+      <c r="D74" t="n">
+        <v>19.21597594202234</v>
+      </c>
+      <c r="E74" t="n">
+        <v>6.491116273900463</v>
+      </c>
+      <c r="F74" t="n">
+        <v>27.7633814562309</v>
+      </c>
+      <c r="G74" t="n">
+        <v>19.74551144234006</v>
+      </c>
+      <c r="H74" t="n">
+        <v>15.43582775603379</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:49</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>16.53772931248489</v>
+      </c>
+      <c r="C75" t="n">
+        <v>47</v>
+      </c>
+      <c r="D75" t="n">
+        <v>27.42559208379573</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.672340869591535</v>
+      </c>
+      <c r="F75" t="n">
+        <v>25.30774371230256</v>
+      </c>
+      <c r="G75" t="n">
+        <v>18.30859763571736</v>
+      </c>
+      <c r="H75" t="n">
+        <v>13.47259760546068</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:51</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>17.98581455021414</v>
+      </c>
+      <c r="C76" t="n">
+        <v>47</v>
+      </c>
+      <c r="D76" t="n">
+        <v>36.10558400265027</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9.505256117450092</v>
+      </c>
+      <c r="F76" t="n">
+        <v>18.0535462758732</v>
+      </c>
+      <c r="G76" t="n">
+        <v>19.76386498240539</v>
+      </c>
+      <c r="H76" t="n">
+        <v>11.15094648871352</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:53</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>22.02910349216261</v>
+      </c>
+      <c r="C77" t="n">
+        <v>48</v>
+      </c>
+      <c r="D77" t="n">
+        <v>27.23141730875808</v>
+      </c>
+      <c r="E77" t="n">
+        <v>16.4222638651973</v>
+      </c>
+      <c r="F77" t="n">
+        <v>26.43605132003519</v>
+      </c>
+      <c r="G77" t="n">
+        <v>16.40547853802885</v>
+      </c>
+      <c r="H77" t="n">
+        <v>25.6076269698624</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:55</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>24.63764271660417</v>
+      </c>
+      <c r="C78" t="n">
+        <v>50</v>
+      </c>
+      <c r="D78" t="n">
+        <v>26.81246844784537</v>
+      </c>
+      <c r="E78" t="n">
+        <v>19.456107533556</v>
+      </c>
+      <c r="F78" t="n">
+        <v>28.83236685476913</v>
+      </c>
+      <c r="G78" t="n">
+        <v>19.91562218979686</v>
+      </c>
+      <c r="H78" t="n">
+        <v>31.76553828116996</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:57</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>20.00523760582989</v>
+      </c>
+      <c r="C79" t="n">
+        <v>49</v>
+      </c>
+      <c r="D79" t="n">
+        <v>22.4573332334693</v>
+      </c>
+      <c r="E79" t="n">
+        <v>11.83660022509498</v>
+      </c>
+      <c r="F79" t="n">
+        <v>34.05309841815486</v>
+      </c>
+      <c r="G79" t="n">
+        <v>12.0249810884893</v>
+      </c>
+      <c r="H79" t="n">
+        <v>20.05711731049103</v>
+      </c>
+      <c r="I79" t="n">
+        <v>48.72842488769207</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:26:59</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>16.23596778542942</v>
+      </c>
+      <c r="C80" t="n">
+        <v>52</v>
+      </c>
+      <c r="D80" t="n">
+        <v>28.9196243772421</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5.222552495792374</v>
+      </c>
+      <c r="F80" t="n">
+        <v>24.98818258013426</v>
+      </c>
+      <c r="G80" t="n">
+        <v>10.64981206678315</v>
+      </c>
+      <c r="H80" t="n">
+        <v>12.88575786558182</v>
+      </c>
+      <c r="I80" t="n">
+        <v>48.72842488769207</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:27:01</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>14.12687675807484</v>
+      </c>
+      <c r="C81" t="n">
+        <v>49</v>
+      </c>
+      <c r="D81" t="n">
+        <v>34.72317651154629</v>
+      </c>
+      <c r="E81" t="n">
+        <v>5.886320598672286</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9.279680981222153</v>
+      </c>
+      <c r="G81" t="n">
+        <v>7.507173262068423</v>
+      </c>
+      <c r="H81" t="n">
+        <v>12.53415863540925</v>
+      </c>
+      <c r="I81" t="n">
+        <v>48.72842488769207</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:27:03</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>11.7405482887095</v>
+      </c>
+      <c r="C82" t="n">
+        <v>46</v>
+      </c>
+      <c r="D82" t="n">
+        <v>30.59264553796354</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3.162855795738737</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>24.93951572434058</v>
+      </c>
+      <c r="I82" t="n">
+        <v>48.72842488769207</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:27:05</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>13.94759853681995</v>
+      </c>
+      <c r="C83" t="n">
+        <v>47</v>
+      </c>
+      <c r="D83" t="n">
+        <v>28.55803202172248</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4.535089908728939</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.402600669030445</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4.310820301680944</v>
+      </c>
+      <c r="H83" t="n">
+        <v>32.02713058714864</v>
+      </c>
+      <c r="I83" t="n">
+        <v>48.72842488769207</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:27:07</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>13.03220420393678</v>
+      </c>
+      <c r="C84" t="n">
+        <v>45</v>
+      </c>
+      <c r="D84" t="n">
+        <v>30.431905582448</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4.310820301680944</v>
+      </c>
+      <c r="H84" t="n">
+        <v>34.65980023672955</v>
+      </c>
+      <c r="I84" t="n">
+        <v>48.72842488769207</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:27:09</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>12.06270877827449</v>
+      </c>
+      <c r="C85" t="n">
+        <v>45</v>
+      </c>
+      <c r="D85" t="n">
+        <v>28.02537574947921</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5.806680365705901</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4.310820301680944</v>
+      </c>
+      <c r="H85" t="n">
+        <v>25.9157977106579</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:27:11</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>13.09513840529066</v>
+      </c>
+      <c r="C86" t="n">
+        <v>46</v>
+      </c>
+      <c r="D86" t="n">
+        <v>20.7099965350294</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8.376813540569044</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>4.310820301680944</v>
+      </c>
+      <c r="H86" t="n">
+        <v>34.55280319541951</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Stamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average Speed</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 0, Direction 0)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 0, Direction 1)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 1, Direction 0)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 1, Direction 1)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 2, Direction 0)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 2, Direction 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:28:26</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>39.55187413363463</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.10831730754649</v>
+      </c>
+      <c r="E2" t="n">
+        <v>43.68719802250501</v>
+      </c>
+      <c r="F2" t="n">
+        <v>43.05710727729006</v>
+      </c>
+      <c r="G2" t="n">
+        <v>49.10280572086624</v>
+      </c>
+      <c r="H2" t="n">
+        <v>30.80394233996536</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:28:28</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>43.3285110289276</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.02314128361257</v>
+      </c>
+      <c r="E3" t="n">
+        <v>41.90963201837846</v>
+      </c>
+      <c r="F3" t="n">
+        <v>45.74134794920216</v>
+      </c>
+      <c r="G3" t="n">
+        <v>46.90220720899829</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30.80394233996536</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:28:30</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>42.21608270669317</v>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36035169828096</v>
+        <v>36.37820206407248</v>
       </c>
       <c r="E4" t="n">
-        <v>44.38376738791371</v>
+        <v>41.90874240987215</v>
       </c>
       <c r="F4" t="n">
-        <v>34.10714648701831</v>
+        <v>45.67965983577251</v>
       </c>
       <c r="G4" t="n">
-        <v>45.01661445080617</v>
+        <v>46.90220720899829</v>
       </c>
       <c r="H4" t="n">
-        <v>39.67779139151808</v>
-      </c>
-      <c r="I4" t="n">
-        <v>38.72013009642776</v>
-      </c>
+        <v>40.2116020147504</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-09-04 20:34:53</t>
+          <t>2024-09-05 02:28:32</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.91540811974991</v>
+        <v>43.59127586484629</v>
       </c>
       <c r="C5" t="n">
         <v>14</v>
       </c>
       <c r="D5" t="n">
+        <v>37.95689952717148</v>
+      </c>
+      <c r="E5" t="n">
+        <v>42.03699077817306</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45.37027123873767</v>
+      </c>
+      <c r="G5" t="n">
+        <v>45.6058720342017</v>
+      </c>
+      <c r="H5" t="n">
+        <v>41.78195959117107</v>
+      </c>
+      <c r="I5" t="n">
+        <v>52.01577290482753</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:28:34</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>40.74990554348935</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.36551962173719</v>
+      </c>
+      <c r="E6" t="n">
+        <v>42.70840145321218</v>
+      </c>
+      <c r="F6" t="n">
+        <v>44.97482226321381</v>
+      </c>
+      <c r="G6" t="n">
+        <v>39.52457624457973</v>
+      </c>
+      <c r="H6" t="n">
+        <v>38.95945704034036</v>
+      </c>
+      <c r="I6" t="n">
+        <v>52.01577290482753</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:28:36</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>41.34521043749361</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35.98621865644908</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40.90680171893521</v>
+      </c>
+      <c r="F7" t="n">
+        <v>41.1751971028642</v>
+      </c>
+      <c r="G7" t="n">
+        <v>45.42192163715182</v>
+      </c>
+      <c r="H7" t="n">
+        <v>38.96797856910793</v>
+      </c>
+      <c r="I7" t="n">
+        <v>44.52208766236869</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:28:38</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>39.80616293673542</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>39.80897249042867</v>
+      </c>
+      <c r="E8" t="n">
+        <v>34.17794572493424</v>
+      </c>
+      <c r="F8" t="n">
+        <v>38.49587633394589</v>
+      </c>
+      <c r="G8" t="n">
+        <v>40.90831157835616</v>
+      </c>
+      <c r="H8" t="n">
+        <v>41.09855092682891</v>
+      </c>
+      <c r="I8" t="n">
+        <v>45.43211681474404</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:28:40</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>38.49694909776763</v>
+      </c>
+      <c r="C9" t="n">
         <v>26</v>
       </c>
-      <c r="E5" t="n">
-        <v>41.51829486060168</v>
-      </c>
-      <c r="F5" t="n">
-        <v>34.10714648701831</v>
-      </c>
-      <c r="G5" t="n">
-        <v>40.74783783896563</v>
-      </c>
-      <c r="H5" t="n">
-        <v>41.95529346317998</v>
-      </c>
-      <c r="I5" t="n">
-        <v>38.96857110711017</v>
+      <c r="D9" t="n">
+        <v>45.90846015364995</v>
+      </c>
+      <c r="E9" t="n">
+        <v>32.52266748643869</v>
+      </c>
+      <c r="F9" t="n">
+        <v>38.5366390684448</v>
+      </c>
+      <c r="G9" t="n">
+        <v>35.19565820023291</v>
+      </c>
+      <c r="H9" t="n">
+        <v>40.86629752698686</v>
+      </c>
+      <c r="I9" t="n">
+        <v>43.37436120603552</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:28:42</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>32.18404851459867</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27</v>
+      </c>
+      <c r="D10" t="n">
+        <v>40.61530778636327</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25.9586532418331</v>
+      </c>
+      <c r="F10" t="n">
+        <v>38.56567905379724</v>
+      </c>
+      <c r="G10" t="n">
+        <v>33.47401435873232</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24.22635915703021</v>
+      </c>
+      <c r="I10" t="n">
+        <v>39.63826391623687</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-09-05 02:28:44</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>36.74912492869866</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31</v>
+      </c>
+      <c r="D11" t="n">
+        <v>36.2255495287736</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32.80087433683995</v>
+      </c>
+      <c r="F11" t="n">
+        <v>43.92190509347593</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40.71828385456305</v>
+      </c>
+      <c r="H11" t="n">
+        <v>31.34910424015798</v>
+      </c>
+      <c r="I11" t="n">
+        <v>38.05082345922028</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="straight road 2 lanes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="junction road 1 lane" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Accidents" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="junction road 1 lane" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Accidents" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,70 +452,265 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Vehicles passing through plus-junction</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. time (seconds) waited to enter junction</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 3, Direction 1)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 1, Direction 1)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 2, Direction 0)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 3, Direction 0)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 2, Direction 1)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Avg. Speed (Road 1, Direction 0)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 1, Direction 1)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-09-12 00:19:20</t>
+          <t>2024-09-12 12:54:21</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.1162816825348</v>
+        <v>45.92926081650629</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>162.7848233070203</v>
-      </c>
-      <c r="E2" t="n">
-        <v>159.4477400580494</v>
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>41.95354760787764</v>
+      </c>
+      <c r="G2" t="n">
+        <v>38.34384431504669</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50.48263156737443</v>
+      </c>
+      <c r="I2" t="n">
+        <v>53.65087570321979</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.90326942537587</v>
+      </c>
+      <c r="K2" t="n">
+        <v>30.99240203369217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-09-12 00:19:25</t>
+          <t>2024-09-12 12:54:26</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.1543488154065</v>
+        <v>41.82138950610611</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>137.7376995427169</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>154.5709980880962</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>47.02869459013218</v>
+      </c>
+      <c r="G3" t="n">
+        <v>42.10725220665784</v>
+      </c>
+      <c r="H3" t="n">
+        <v>48.22473030506848</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31.9789586431459</v>
+      </c>
+      <c r="J3" t="n">
+        <v>45.34156649943344</v>
+      </c>
+      <c r="K3" t="n">
+        <v>39.26533037673937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-09-12 00:19:28</t>
+          <t>2024-09-12 12:54:31</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.4359240267293</v>
+        <v>26.39248297375177</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>145.3238638626348</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>155.9048684205562</v>
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>49.74096206497433</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.42495997551785</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32.75092417349077</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32.52575578686218</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38.0290474530395</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.42667733007719</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-09-12 12:54:36</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>25.03843167758055</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.944177707036336</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>14.95648037370953</v>
+      </c>
+      <c r="H5" t="n">
+        <v>28.45176961923142</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20.14438890706975</v>
+      </c>
+      <c r="J5" t="n">
+        <v>40.45928231039007</v>
+      </c>
+      <c r="K5" t="n">
+        <v>34.85205470129428</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-09-12 12:54:41</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>26.30578583125924</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.372208913167318</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43.74168849645782</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.89329178142397</v>
+      </c>
+      <c r="H6" t="n">
+        <v>40.76747288107121</v>
+      </c>
+      <c r="I6" t="n">
+        <v>23.854166384772</v>
+      </c>
+      <c r="J6" t="n">
+        <v>34.48049024965424</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18.46908638619662</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-09-12 12:54:43</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>31.36618913223004</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.60251796245575</v>
+      </c>
+      <c r="F7" t="n">
+        <v>40.05089939801602</v>
+      </c>
+      <c r="G7" t="n">
+        <v>29.07666659567725</v>
+      </c>
+      <c r="H7" t="n">
+        <v>45.39314725642101</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19.03136042200451</v>
+      </c>
+      <c r="J7" t="n">
+        <v>38.77237372484483</v>
+      </c>
+      <c r="K7" t="n">
+        <v>27.42432049445251</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,351 +740,23 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Average Speed (km\h)</t>
+          <t>Road Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Vehicle Types</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Vehicles passing through plus-junction</t>
+          <t>Speeds At Crash Time (km\h)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Avg. time (seconds) waited to enter junction</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 3, Direction 1)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 1, Direction 1)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 2, Direction 0)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 2, Direction 1)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 3, Direction 0)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 1, Direction 0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-09-12 00:19:37</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>42.8606609419605</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>43.04406275200475</v>
-      </c>
-      <c r="G2" t="n">
-        <v>45.29653875857061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>47.20553516739295</v>
-      </c>
-      <c r="I2" t="n">
-        <v>39.09511680989982</v>
-      </c>
-      <c r="J2" t="n">
-        <v>44.68036264557358</v>
-      </c>
-      <c r="K2" t="n">
-        <v>33.00743990472633</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-09-12 00:19:42</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>44.2026346888154</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>43.40041155588791</v>
-      </c>
-      <c r="G3" t="n">
-        <v>53.27771125253204</v>
-      </c>
-      <c r="H3" t="n">
-        <v>43.54044219736036</v>
-      </c>
-      <c r="I3" t="n">
-        <v>39.69272417462864</v>
-      </c>
-      <c r="J3" t="n">
-        <v>48.67484055554703</v>
-      </c>
-      <c r="K3" t="n">
-        <v>30.18713342743979</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-09-12 00:19:47</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>40.36883543235182</v>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>35.83575265107249</v>
-      </c>
-      <c r="G4" t="n">
-        <v>74.04536030232616</v>
-      </c>
-      <c r="H4" t="n">
-        <v>43.1533373902775</v>
-      </c>
-      <c r="I4" t="n">
-        <v>39.93990832632662</v>
-      </c>
-      <c r="J4" t="n">
-        <v>41.81842762612849</v>
-      </c>
-      <c r="K4" t="n">
-        <v>20.23885813427707</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-09-12 00:19:48</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>45.0899462937592</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>35.83575265107249</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100.0574294943651</v>
-      </c>
-      <c r="H5" t="n">
-        <v>42.69856402940746</v>
-      </c>
-      <c r="I5" t="n">
-        <v>39.93990832632662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>47.56054001512872</v>
-      </c>
-      <c r="K5" t="n">
-        <v>19.65884261322199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time Stamp</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Road Type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Vehicle Types</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Speeds At Crash Time (km\h)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>Accident ID</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-09-12 00:19:27</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>straight</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Car and Car</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>77.74 and 166.83</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-09-12 00:19:28</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>straight</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Car and Truck</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00 and 78.01</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-09-12 00:19:45</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>junction</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Car and Truck</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.99 and 47.32</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-09-12 00:19:46</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>junction</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Car and Truck</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>130.85 and 0.00</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="junction road 1 lane" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Accidents" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="straight road 2 lanes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="roundabout road 1 lane" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="junction road 1 lane" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Accidents" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,265 +454,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Vehicles passing through plus-junction</t>
+          <t>Avg. Speed (Road 1, Direction 0)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Avg. time (seconds) waited to enter junction</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 3, Direction 1)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>Avg. Speed (Road 1, Direction 1)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 2, Direction 0)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 3, Direction 0)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 2, Direction 1)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Speed (Road 1, Direction 0)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-09-12 12:54:21</t>
+          <t>2024-09-12 13:39:59</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.92926081650629</v>
+        <v>73.61354638096506</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>41.95354760787764</v>
-      </c>
-      <c r="G2" t="n">
-        <v>38.34384431504669</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50.48263156737443</v>
-      </c>
-      <c r="I2" t="n">
-        <v>53.65087570321979</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.90326942537587</v>
-      </c>
-      <c r="K2" t="n">
-        <v>30.99240203369217</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-09-12 12:54:26</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>41.82138950610611</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>47.02869459013218</v>
-      </c>
-      <c r="G3" t="n">
-        <v>42.10725220665784</v>
-      </c>
-      <c r="H3" t="n">
-        <v>48.22473030506848</v>
-      </c>
-      <c r="I3" t="n">
-        <v>31.9789586431459</v>
-      </c>
-      <c r="J3" t="n">
-        <v>45.34156649943344</v>
-      </c>
-      <c r="K3" t="n">
-        <v>39.26533037673937</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-09-12 12:54:31</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>26.39248297375177</v>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>49.74096206497433</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21.42495997551785</v>
-      </c>
-      <c r="H4" t="n">
-        <v>32.75092417349077</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32.52575578686218</v>
-      </c>
-      <c r="J4" t="n">
-        <v>38.0290474530395</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.42667733007719</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-09-12 12:54:36</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>25.03843167758055</v>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.944177707036336</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>14.95648037370953</v>
-      </c>
-      <c r="H5" t="n">
-        <v>28.45176961923142</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20.14438890706975</v>
-      </c>
-      <c r="J5" t="n">
-        <v>40.45928231039007</v>
-      </c>
-      <c r="K5" t="n">
-        <v>34.85205470129428</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024-09-12 12:54:41</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>26.30578583125924</v>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.372208913167318</v>
-      </c>
-      <c r="F6" t="n">
-        <v>43.74168849645782</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14.89329178142397</v>
-      </c>
-      <c r="H6" t="n">
-        <v>40.76747288107121</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23.854166384772</v>
-      </c>
-      <c r="J6" t="n">
-        <v>34.48049024965424</v>
-      </c>
-      <c r="K6" t="n">
-        <v>18.46908638619662</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024-09-12 12:54:43</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>31.36618913223004</v>
-      </c>
-      <c r="C7" t="n">
-        <v>27</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.60251796245575</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40.05089939801602</v>
-      </c>
-      <c r="G7" t="n">
-        <v>29.07666659567725</v>
-      </c>
-      <c r="H7" t="n">
-        <v>45.39314725642101</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19.03136042200451</v>
-      </c>
-      <c r="J7" t="n">
-        <v>38.77237372484483</v>
-      </c>
-      <c r="K7" t="n">
-        <v>27.42432049445251</v>
+        <v>71.60265825820706</v>
+      </c>
+      <c r="E2" t="n">
+        <v>75.62443450372309</v>
       </c>
     </row>
   </sheetData>
@@ -719,6 +488,364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Stamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average Speed (km\h)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicles passing through roundabout</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 1, Direction 0)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 1, Direction 1)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 2, Direction 0)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 2, Direction 1)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 3, Direction 0)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 3, Direction 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-09-12 13:40:06</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>43.05990595936821</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>38.19789495790369</v>
+      </c>
+      <c r="F2" t="n">
+        <v>45.15376236358112</v>
+      </c>
+      <c r="G2" t="n">
+        <v>38.09917333663068</v>
+      </c>
+      <c r="H2" t="n">
+        <v>43.56371066725747</v>
+      </c>
+      <c r="I2" t="n">
+        <v>47.80462216009933</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-09-12 13:40:11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>41.09231221825002</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34.37745744802951</v>
+      </c>
+      <c r="F3" t="n">
+        <v>41.19047329164647</v>
+      </c>
+      <c r="G3" t="n">
+        <v>38.40769515612099</v>
+      </c>
+      <c r="H3" t="n">
+        <v>42.82934853098349</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45.44054132490948</v>
+      </c>
+      <c r="J3" t="n">
+        <v>49.79286748753488</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-09-12 13:40:16</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>37.44534878161553</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39.34427745860437</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35.55341877121457</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40.32162784312454</v>
+      </c>
+      <c r="H4" t="n">
+        <v>38.47664114739003</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30.96543789644304</v>
+      </c>
+      <c r="J4" t="n">
+        <v>49.79286748753488</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-09-12 13:40:17</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>36.69997140249792</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.49806409187927</v>
+      </c>
+      <c r="F5" t="n">
+        <v>37.60123964249841</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27.70535214057742</v>
+      </c>
+      <c r="H5" t="n">
+        <v>33.72485095841363</v>
+      </c>
+      <c r="I5" t="n">
+        <v>43.11754128901119</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45.43964350847895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Stamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average Speed (km\h)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicles passing through plus-junction</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. time (seconds) waited to enter junction</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 3, Direction 1)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 1, Direction 1)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 2, Direction 0)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 2, Direction 1)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 3, Direction 0)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Speed (Road 1, Direction 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-09-12 13:40:24</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>46.75327837037735</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>59.65951516723347</v>
+      </c>
+      <c r="G2" t="n">
+        <v>47.13881959706224</v>
+      </c>
+      <c r="H2" t="n">
+        <v>36.35208980093715</v>
+      </c>
+      <c r="I2" t="n">
+        <v>47.04397004973643</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50.27218517418505</v>
+      </c>
+      <c r="K2" t="n">
+        <v>35.85795072325808</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-09-12 13:40:26</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>46.97671717024681</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>59.65951516723347</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47.13881959706224</v>
+      </c>
+      <c r="H3" t="n">
+        <v>43.41466619973752</v>
+      </c>
+      <c r="I3" t="n">
+        <v>47.04397004973643</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50.27218517418505</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40.67254583201941</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
